--- a/VerveStacks_MEX/SysSettings.xlsx
+++ b/VerveStacks_MEX/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_MEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6994D9-6375-4323-8102-F76631FC5778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4514A3-5222-4EA9-B503-CD973DA7F7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>~TimeSlices</t>
   </si>
   <si>
-    <t>GBL</t>
-  </si>
-  <si>
     <t>Season</t>
   </si>
   <si>
@@ -683,6 +680,9 @@
   </si>
   <si>
     <t>electricity used in road transport</t>
+  </si>
+  <si>
+    <t>MEX</t>
   </si>
 </sst>
 </file>
@@ -3044,35 +3044,35 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3103,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3115,207 +3115,207 @@
     </row>
     <row r="4" spans="2:9" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
         <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
         <v>205</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>206</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>207</v>
-      </c>
-      <c r="E20" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3345,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3355,28 +3355,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3404,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3444,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3464,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3484,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3504,7 +3504,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3520,7 +3520,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3532,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3540,7 +3540,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3548,7 +3548,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3556,37 +3556,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3655,7 +3655,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -3663,42 +3663,42 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="C7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="C8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -3739,50 +3739,50 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="G12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="11">
         <v>2222</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="C14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="11">
         <v>8888</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -3820,7 +3820,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3833,43 +3833,43 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="14.25">
       <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
         <v>209</v>
-      </c>
-      <c r="B20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" t="s">
-        <v>210</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -4196,10 +4196,10 @@
       <c r="J2"/>
       <c r="K2" s="13"/>
       <c r="L2" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15" thickTop="1" thickBot="1">
@@ -4214,31 +4214,31 @@
       <c r="J3"/>
       <c r="K3" s="13"/>
       <c r="L3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U3" s="4">
         <v>2022</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="14.25">
@@ -4253,17 +4253,17 @@
       <c r="J4"/>
       <c r="K4" s="13"/>
       <c r="L4" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M4" s="6"/>
       <c r="Q4" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U4" s="11">
         <v>0.05</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="13.15">
@@ -4278,19 +4278,19 @@
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
       <c r="L5" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="U5" s="11">
         <v>1</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="13.15">
@@ -4303,10 +4303,10 @@
       <c r="J6" s="6"/>
       <c r="K6" s="13"/>
       <c r="L6" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U6" s="11">
         <v>2025</v>
@@ -4316,10 +4316,10 @@
       <c r="J7" s="6"/>
       <c r="K7" s="13"/>
       <c r="L7" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U7" s="11">
         <v>1</v>
@@ -4329,16 +4329,16 @@
       <c r="J8" s="6"/>
       <c r="K8" s="13"/>
       <c r="L8" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U8" s="11">
         <v>2.2201</v>
@@ -4348,16 +4348,16 @@
       <c r="J9" s="6"/>
       <c r="K9" s="13"/>
       <c r="L9" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U9" s="11">
         <v>2.1427</v>
@@ -4365,23 +4365,23 @@
     </row>
     <row r="10" spans="2:22" ht="17.649999999999999" thickBot="1">
       <c r="D10" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="13"/>
       <c r="L10" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U10" s="11">
         <v>2.077</v>
@@ -4389,27 +4389,27 @@
     </row>
     <row r="11" spans="2:22" ht="15" thickTop="1" thickBot="1">
       <c r="D11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="13"/>
       <c r="L11" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U11" s="11">
         <v>2.0358000000000001</v>
@@ -4417,26 +4417,26 @@
     </row>
     <row r="12" spans="2:22" ht="13.15">
       <c r="D12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="F12" s="6">
         <v>1055.55</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U12" s="11">
         <v>1.9870000000000001</v>
@@ -4444,26 +4444,26 @@
     </row>
     <row r="13" spans="2:22" ht="13.15">
       <c r="D13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="6">
         <v>3.6</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U13" s="11">
         <v>1.9192</v>
@@ -4472,26 +4472,26 @@
     <row r="14" spans="2:22" ht="13.15">
       <c r="B14" s="13"/>
       <c r="D14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="F14" s="6">
         <v>1000</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U14" s="11">
         <v>1.8468</v>
@@ -4500,26 +4500,26 @@
     <row r="15" spans="2:22" ht="13.15">
       <c r="B15" s="13"/>
       <c r="D15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="F15" s="6">
         <v>1000</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U15" s="11">
         <v>1.7799</v>
@@ -4528,26 +4528,26 @@
     <row r="16" spans="2:22" ht="13.15">
       <c r="B16" s="13"/>
       <c r="D16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="6">
         <v>1.05555</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U16" s="11">
         <v>1.722</v>
@@ -4555,26 +4555,26 @@
     </row>
     <row r="17" spans="4:21" ht="13.15">
       <c r="D17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U17" s="11">
         <v>1.6836</v>
@@ -4582,25 +4582,25 @@
     </row>
     <row r="18" spans="4:21" ht="13.15">
       <c r="D18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="6">
         <v>41.868000000000002</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U18" s="11">
         <v>1.6446000000000001</v>
@@ -4608,25 +4608,25 @@
     </row>
     <row r="19" spans="4:21" ht="13.15">
       <c r="D19" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="6">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U19" s="11">
         <v>1.6102000000000001</v>
@@ -4634,25 +4634,25 @@
     </row>
     <row r="20" spans="4:21" ht="13.15">
       <c r="D20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="6">
         <v>1000000</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U20" s="11">
         <v>1.5770999999999999</v>
@@ -4660,25 +4660,25 @@
     </row>
     <row r="21" spans="4:21" ht="13.15">
       <c r="D21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="F21" s="6">
         <v>1000</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U21" s="11">
         <v>1.5488</v>
@@ -4686,25 +4686,25 @@
     </row>
     <row r="22" spans="4:21" ht="13.15">
       <c r="D22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="F22" s="6">
         <v>5.8615199999999996</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U22" s="11">
         <v>1.5224</v>
@@ -4712,25 +4712,25 @@
     </row>
     <row r="23" spans="4:21" ht="13.15">
       <c r="D23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="F23" s="6">
         <v>1E-3</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U23" s="11">
         <v>1.5058</v>
@@ -4738,25 +4738,25 @@
     </row>
     <row r="24" spans="4:21" ht="13.15">
       <c r="D24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" s="6">
         <v>1000</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U24" s="11">
         <v>1.4844999999999999</v>
@@ -4764,25 +4764,25 @@
     </row>
     <row r="25" spans="4:21" ht="13.15">
       <c r="D25" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="6">
         <v>37.68</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U25" s="11">
         <v>1.4518</v>
@@ -4790,25 +4790,25 @@
     </row>
     <row r="26" spans="4:21" ht="13.15">
       <c r="D26" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="6">
         <v>2139.4548</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U26" s="11">
         <v>1.4198999999999999</v>
@@ -4816,25 +4816,25 @@
     </row>
     <row r="27" spans="4:21" ht="13.15">
       <c r="D27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="F27" s="6">
         <v>2.78</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U27" s="11">
         <v>1.3986000000000001</v>
@@ -4842,25 +4842,25 @@
     </row>
     <row r="28" spans="4:21" ht="13.15">
       <c r="D28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="6">
         <v>3.6</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U28" s="11">
         <v>1.3727</v>
@@ -4868,25 +4868,25 @@
     </row>
     <row r="29" spans="4:21" ht="13.15">
       <c r="D29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U29" s="11">
         <v>1.3369</v>
@@ -4894,25 +4894,25 @@
     </row>
     <row r="30" spans="4:21" ht="13.15">
       <c r="D30" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="6">
         <v>31.536000000000001</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U30" s="11">
         <v>1.2967</v>
@@ -4920,25 +4920,25 @@
     </row>
     <row r="31" spans="4:21" ht="13.15">
       <c r="D31" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="6">
         <v>120</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U31" s="11">
         <v>1.2583</v>
@@ -4946,25 +4946,25 @@
     </row>
     <row r="32" spans="4:21" ht="13.15">
       <c r="D32" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" s="11">
         <v>5.8615199999999996</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U32" s="11">
         <v>1.2253000000000001</v>
@@ -4972,25 +4972,25 @@
     </row>
     <row r="33" spans="4:21" ht="13.15">
       <c r="D33" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="11">
         <v>54</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U33" s="11">
         <v>1.2023999999999999</v>
@@ -4998,16 +4998,16 @@
     </row>
     <row r="34" spans="4:21" ht="13.15">
       <c r="L34" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U34" s="11">
         <v>1.1931</v>
@@ -5015,16 +5015,16 @@
     </row>
     <row r="35" spans="4:21" ht="13.15">
       <c r="L35" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U35" s="11">
         <v>1.1793</v>
@@ -5032,16 +5032,16 @@
     </row>
     <row r="36" spans="4:21" ht="13.15">
       <c r="L36" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U36" s="11">
         <v>1.1552</v>
@@ -5049,16 +5049,16 @@
     </row>
     <row r="37" spans="4:21" ht="13.15">
       <c r="L37" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U37" s="11">
         <v>1.1334</v>
@@ -5066,16 +5066,16 @@
     </row>
     <row r="38" spans="4:21" ht="13.15">
       <c r="L38" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U38" s="11">
         <v>1.1136999999999999</v>
@@ -5083,16 +5083,16 @@
     </row>
     <row r="39" spans="4:21" ht="13.15">
       <c r="L39" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U39" s="11">
         <v>1.0934999999999999</v>
@@ -5100,16 +5100,16 @@
     </row>
     <row r="40" spans="4:21" ht="13.15">
       <c r="L40" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U40" s="11">
         <v>1.0831</v>
@@ -5117,16 +5117,16 @@
     </row>
     <row r="41" spans="4:21" ht="13.15">
       <c r="L41" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U41" s="11">
         <v>1.0719000000000001</v>
@@ -5134,16 +5134,16 @@
     </row>
     <row r="42" spans="4:21" ht="13.15">
       <c r="L42" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U42" s="11">
         <v>1.0519000000000001</v>
@@ -5151,16 +5151,16 @@
     </row>
     <row r="43" spans="4:21" ht="13.15">
       <c r="L43" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U43" s="11">
         <v>1.0274000000000001</v>
@@ -5168,16 +5168,16 @@
     </row>
     <row r="44" spans="4:21" ht="13.15">
       <c r="L44" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U44" s="11">
         <v>1.0091000000000001</v>
@@ -5185,16 +5185,16 @@
     </row>
     <row r="45" spans="4:21" ht="13.15">
       <c r="L45" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U45" s="11">
         <v>1</v>
@@ -5202,16 +5202,16 @@
     </row>
     <row r="46" spans="4:21" ht="13.15">
       <c r="L46" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U46" s="11">
         <v>0.98960000000000004</v>
@@ -5219,16 +5219,16 @@
     </row>
     <row r="47" spans="4:21" ht="13.15">
       <c r="L47" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U47" s="11">
         <v>0.97809999999999997</v>
@@ -5236,16 +5236,16 @@
     </row>
     <row r="48" spans="4:21" ht="13.15">
       <c r="L48" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U48" s="11">
         <v>0.96499999999999997</v>
@@ -5253,16 +5253,16 @@
     </row>
     <row r="49" spans="12:21" ht="13.15">
       <c r="L49" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U49" s="11">
         <v>0.94910000000000005</v>
@@ -5270,16 +5270,16 @@
     </row>
     <row r="50" spans="12:21" ht="13.15">
       <c r="L50" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U50" s="11">
         <v>0.92969999999999997</v>
@@ -5287,13 +5287,13 @@
     </row>
     <row r="51" spans="12:21" ht="13.15">
       <c r="L51" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U51" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5301,13 +5301,13 @@
     </row>
     <row r="52" spans="12:21" ht="13.15">
       <c r="L52" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5315,13 +5315,13 @@
     </row>
     <row r="53" spans="12:21" ht="13.15">
       <c r="L53" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5329,13 +5329,13 @@
     </row>
     <row r="54" spans="12:21" ht="13.15">
       <c r="L54" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5343,10 +5343,10 @@
     </row>
     <row r="55" spans="12:21">
       <c r="Q55" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5354,10 +5354,10 @@
     </row>
     <row r="56" spans="12:21">
       <c r="Q56" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5365,10 +5365,10 @@
     </row>
     <row r="57" spans="12:21">
       <c r="Q57" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5376,10 +5376,10 @@
     </row>
     <row r="58" spans="12:21">
       <c r="Q58" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5387,10 +5387,10 @@
     </row>
     <row r="59" spans="12:21">
       <c r="Q59" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5398,10 +5398,10 @@
     </row>
     <row r="60" spans="12:21">
       <c r="Q60" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5409,10 +5409,10 @@
     </row>
     <row r="61" spans="12:21">
       <c r="Q61" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="62" spans="12:21">
       <c r="Q62" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5431,10 +5431,10 @@
     </row>
     <row r="63" spans="12:21">
       <c r="Q63" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5442,10 +5442,10 @@
     </row>
     <row r="64" spans="12:21">
       <c r="Q64" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5453,10 +5453,10 @@
     </row>
     <row r="65" spans="17:21">
       <c r="Q65" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5464,10 +5464,10 @@
     </row>
     <row r="66" spans="17:21">
       <c r="Q66" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5475,10 +5475,10 @@
     </row>
     <row r="67" spans="17:21">
       <c r="Q67" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5486,10 +5486,10 @@
     </row>
     <row r="68" spans="17:21">
       <c r="Q68" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5497,10 +5497,10 @@
     </row>
     <row r="69" spans="17:21">
       <c r="Q69" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5508,10 +5508,10 @@
     </row>
     <row r="70" spans="17:21">
       <c r="Q70" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="71" spans="17:21">
       <c r="Q71" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="72" spans="17:21">
       <c r="Q72" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5541,10 +5541,10 @@
     </row>
     <row r="73" spans="17:21">
       <c r="Q73" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5552,10 +5552,10 @@
     </row>
     <row r="74" spans="17:21">
       <c r="Q74" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5563,10 +5563,10 @@
     </row>
     <row r="75" spans="17:21">
       <c r="Q75" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="76" spans="17:21">
       <c r="Q76" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5585,10 +5585,10 @@
     </row>
     <row r="77" spans="17:21">
       <c r="Q77" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5596,10 +5596,10 @@
     </row>
     <row r="78" spans="17:21">
       <c r="Q78" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="79" spans="17:21">
       <c r="Q79" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="80" spans="17:21">
       <c r="Q80" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5629,10 +5629,10 @@
     </row>
     <row r="81" spans="17:21">
       <c r="Q81" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5640,10 +5640,10 @@
     </row>
     <row r="82" spans="17:21">
       <c r="Q82" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="83" spans="17:21">
       <c r="Q83" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5662,10 +5662,10 @@
     </row>
     <row r="84" spans="17:21">
       <c r="Q84" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="85" spans="17:21">
       <c r="Q85" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="86" spans="17:21">
       <c r="Q86" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T86" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5695,10 +5695,10 @@
     </row>
     <row r="87" spans="17:21">
       <c r="Q87" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5706,10 +5706,10 @@
     </row>
     <row r="88" spans="17:21">
       <c r="Q88" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5717,10 +5717,10 @@
     </row>
     <row r="89" spans="17:21">
       <c r="Q89" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5728,10 +5728,10 @@
     </row>
     <row r="90" spans="17:21">
       <c r="Q90" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="91" spans="17:21">
       <c r="Q91" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="92" spans="17:21">
       <c r="Q92" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5761,10 +5761,10 @@
     </row>
     <row r="93" spans="17:21">
       <c r="Q93" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5793,26 +5793,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5952,10 +5952,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -5985,73 +5985,73 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
